--- a/data/temp_data.xlsx
+++ b/data/temp_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,67 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alive Medical Services Special Clinic</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.3097409</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32.6101889</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>http://amsuganda.org/</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0774 704646</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Makindye Division</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>cancer treatment, general medical services, hiv/aids services, maternity services, teenage services</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/temp_data.xlsx
+++ b/data/temp_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,67 +500,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1111</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alive Medical Services Special Clinic</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.3097409</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>32.6101889</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours, Open 24 hours</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>http://amsuganda.org/</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0774 704646</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Private</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Makindye Division</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>cancer treatment, general medical services, hiv/aids services, maternity services, teenage services</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
